--- a/biology/Botanique/Westringia/Westringia.xlsx
+++ b/biology/Botanique/Westringia/Westringia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Westringia est un genre de plantes dicotylédones de la famille des Lamiacées (Lamiaceae). Certaines espèces comme Westringia fruticosa (synonyme Westringia rosmariniformis) et Westringia eremicola sont cultivées dans les régions où les hivers sont doux et commercialisées sous le nom de « romarin d'Australie ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Westringia eremicola
@@ -545,11 +559,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1797 par le botaniste britannique James Edward Smith (1759-1828)[1].
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (28 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1797 par le botaniste britannique James Edward Smith (1759-1828).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Westringia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Westringia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (28 septembre 2015) :
 Westringia acifolia G.R.Guerin (2009)
 Westringia amabilis B.Boivin (1950)
 Westringia angustifolia R.Br. (1810)
@@ -582,7 +633,7 @@
 Westringia tenuicaulis C.T.White &amp; W.D.Francis (1921)
 Westringia viminalis B.J.Conn &amp; Tozer (1993)
 Listes d'espèces selon Tropicos (dont des synonymes)
-Selon Tropicos                                           (28 septembre 2015)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 septembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Westringia amabilis B. Boivin
 Westringia angustifolia R. Br.
 Westringia blakeana B. Boivin
